--- a/class_schedules_fall_2018/MUSIC PROGRAM (CMUS) - COLLEGE OF ARTS & SCIENCES.xlsx
+++ b/class_schedules_fall_2018/MUSIC PROGRAM (CMUS) - COLLEGE OF ARTS & SCIENCES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>103</t>
   </si>
@@ -40,6 +40,21 @@
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>14184</t>
   </si>
   <si>
@@ -52,9 +67,27 @@
     <t>2938</t>
   </si>
   <si>
+    <t>9704</t>
+  </si>
+  <si>
+    <t>9705</t>
+  </si>
+  <si>
+    <t>9785</t>
+  </si>
+  <si>
+    <t>12224</t>
+  </si>
+  <si>
+    <t>13785</t>
+  </si>
+  <si>
     <t>2939</t>
   </si>
   <si>
+    <t>13700</t>
+  </si>
+  <si>
     <t>13970</t>
   </si>
   <si>
@@ -70,31 +103,58 @@
     <t>F</t>
   </si>
   <si>
-    <t>Intro to Anthropology of Music MWF</t>
-  </si>
-  <si>
-    <t>General Music Theory TR</t>
-  </si>
-  <si>
-    <t>Music in Literature TR</t>
-  </si>
-  <si>
-    <t>Senior Honors</t>
-  </si>
-  <si>
-    <t>Oberlin A&amp;S Chamber</t>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>A&amp;S</t>
+  </si>
+  <si>
+    <t>Intro to Anthropology of Music</t>
+  </si>
+  <si>
+    <t>General Music Theory</t>
+  </si>
+  <si>
+    <t>Music in Literature</t>
+  </si>
+  <si>
+    <t>Oberlin</t>
   </si>
   <si>
     <t>Musical</t>
   </si>
   <si>
-    <t>1100-1150am</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Chamber</t>
+  </si>
+  <si>
+    <t>Studies</t>
+  </si>
+  <si>
+    <t>1150am</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0415pm</t>
   </si>
   <si>
     <t>TBA</t>
@@ -103,7 +163,7 @@
     <t>Music</t>
   </si>
   <si>
-    <t>Studies</t>
+    <t>Capston</t>
   </si>
   <si>
     <t>CBIB</t>
@@ -112,9 +172,6 @@
     <t>KING</t>
   </si>
   <si>
-    <t>Capston</t>
-  </si>
-  <si>
     <t>325</t>
   </si>
   <si>
@@ -127,6 +184,27 @@
     <t>Alegant</t>
   </si>
   <si>
+    <t>Plank</t>
+  </si>
+  <si>
+    <t>Fraser</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Hartke</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Swendsen</t>
+  </si>
+  <si>
+    <t>TBA Staff</t>
+  </si>
+  <si>
     <t>Fraser Jennifer</t>
   </si>
   <si>
@@ -139,10 +217,25 @@
     <t>Brian D</t>
   </si>
   <si>
+    <t>Steven D</t>
+  </si>
+  <si>
+    <t>Jennifer D</t>
+  </si>
+  <si>
+    <t>Robert D</t>
+  </si>
+  <si>
+    <t>Stephen D</t>
+  </si>
+  <si>
+    <t>Kathryn D</t>
+  </si>
+  <si>
+    <t>Peter D</t>
+  </si>
+  <si>
     <t>Jenkins Christophe</t>
-  </si>
-  <si>
-    <t>TBA Staff</t>
   </si>
 </sst>
 </file>
@@ -500,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -537,8 +630,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,31 +648,37 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -584,31 +689,37 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -619,31 +730,37 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -654,133 +771,373 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
